--- a/temp/pages/StructureDefinition-rtlsMessageEnrollmentHeader.xlsx
+++ b/temp/pages/StructureDefinition-rtlsMessageEnrollmentHeader.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$43</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="331">
   <si>
     <t>Property</t>
   </si>
@@ -39,7 +39,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>rtlsMessageEnrollmentHeader</t>
+    <t>RTLSMessageEnrollmentHeader</t>
   </si>
   <si>
     <t>Title</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-04T22:10:47-05:00</t>
+    <t>2025-08-05T14:07:30-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -471,8 +471,8 @@
     <t>MessageHeader.event[x]</t>
   </si>
   <si>
-    <t>Coding
-uri</t>
+    <t xml:space="preserve">Coding
+</t>
   </si>
   <si>
     <t>Code for the event this message represents or link to event definition</t>
@@ -493,6 +493,13 @@
     <t>http://hl7.org/fhir/uv/rtls/ValueSet/rtlsMessageEvents</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>MSH-9.2</t>
   </si>
   <si>
@@ -502,7 +509,56 @@
     <t>FiveWs.what[x]</t>
   </si>
   <si>
-    <t>MessageHeader.event[x].id</t>
+    <t>MessageHeader.event[x]:eventCoding</t>
+  </si>
+  <si>
+    <t>eventCoding</t>
+  </si>
+  <si>
+    <t>Fixed RTLS event code</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://hl7.org/fhir/uv/rtls/CodeSystem/rtlsMessageEvents"/&gt;
+  &lt;code value="enroll-tag"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>One of the message events defined as part of this version of FHIR.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/message-events</t>
+  </si>
+  <si>
+    <t>MessageHeader.destination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Message destination application(s)</t>
+  </si>
+  <si>
+    <t>The destination application which the message is intended for.</t>
+  </si>
+  <si>
+    <t>There SHOULD be at least one destination, but in some circumstances, the source system is unaware of any particular destination system.</t>
+  </si>
+  <si>
+    <t>Indicates where message is to be sent for routing purposes.  Allows verification of "am I the intended recipient".</t>
+  </si>
+  <si>
+    <t>./communicationFunction[typeCode="RCV"]</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>MessageHeader.destination.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -521,54 +577,13 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>MessageHeader.event[x].extension</t>
+    <t>MessageHeader.destination.extension</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>MessageHeader.destination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Message destination application(s)</t>
-  </si>
-  <si>
-    <t>The destination application which the message is intended for.</t>
-  </si>
-  <si>
-    <t>There SHOULD be at least one destination, but in some circumstances, the source system is unaware of any particular destination system.</t>
-  </si>
-  <si>
-    <t>Indicates where message is to be sent for routing purposes.  Allows verification of "am I the intended recipient".</t>
-  </si>
-  <si>
-    <t>./communicationFunction[typeCode="RCV"]</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>MessageHeader.destination.id</t>
-  </si>
-  <si>
-    <t>MessageHeader.destination.extension</t>
   </si>
   <si>
     <t>MessageHeader.destination.modifierExtension</t>
@@ -874,9 +889,6 @@
   </si>
   <si>
     <t>Need to be able to track why resources are being changed and report in the audit log/history of the resource.  May affect authorization.</t>
-  </si>
-  <si>
-    <t>example</t>
   </si>
   <si>
     <t>Reason for event occurrence.</t>
@@ -1353,7 +1365,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM44"/>
+  <dimension ref="A1:AM43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1362,17 +1374,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.5625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.5625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.48828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="36.48828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.5390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="55.8203125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="53.51171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1381,25 +1393,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.80078125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="29.0625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="46.09765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="31.21484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="51.703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.8984375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="16.2578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.37890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="143.62890625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="144.15625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="29.45703125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="28.5078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2593,16 +2605,14 @@
         <v>78</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>78</v>
+        <v>154</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>145</v>
@@ -2620,53 +2630,59 @@
         <v>100</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="P12" t="s" s="2">
         <v>78</v>
       </c>
@@ -2675,7 +2691,7 @@
         <v>78</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>78</v>
@@ -2690,13 +2706,13 @@
         <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>78</v>
@@ -2714,10 +2730,10 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>88</v>
@@ -2726,28 +2742,28 @@
         <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2763,21 +2779,23 @@
         <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O13" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P13" t="s" s="2">
         <v>78</v>
       </c>
@@ -2813,19 +2831,19 @@
         <v>78</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="AC13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -2837,24 +2855,24 @@
         <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>78</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2865,7 +2883,7 @@
         <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>78</v>
@@ -2874,23 +2892,19 @@
         <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>78</v>
       </c>
@@ -2938,47 +2952,47 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>175</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>78</v>
@@ -2990,15 +3004,17 @@
         <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>78</v>
@@ -3047,25 +3063,25 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>78</v>
@@ -3073,14 +3089,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>133</v>
+        <v>183</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3093,24 +3109,26 @@
         <v>78</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>135</v>
+        <v>184</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="N16" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="O16" s="2"/>
+      <c r="O16" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>78</v>
       </c>
@@ -3158,7 +3176,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3176,7 +3194,7 @@
         <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>78</v>
@@ -3184,45 +3202,43 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>179</v>
+        <v>78</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>143</v>
+        <v>190</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>78</v>
@@ -3271,25 +3287,25 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>131</v>
+        <v>192</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>78</v>
@@ -3297,10 +3313,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3323,17 +3339,17 @@
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>78</v>
@@ -3382,7 +3398,7 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3397,10 +3413,10 @@
         <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>187</v>
+        <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>78</v>
@@ -3408,10 +3424,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3419,7 +3435,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>88</v>
@@ -3434,17 +3450,19 @@
         <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="O19" t="s" s="2">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>78</v>
@@ -3493,10 +3511,10 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>88</v>
@@ -3508,10 +3526,10 @@
         <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>78</v>
+        <v>205</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>78</v>
@@ -3519,10 +3537,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3530,7 +3548,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>88</v>
@@ -3545,19 +3563,17 @@
         <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>78</v>
@@ -3606,10 +3622,10 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>88</v>
@@ -3621,21 +3637,21 @@
         <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>78</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3658,17 +3674,19 @@
         <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="O21" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>78</v>
@@ -3717,7 +3735,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -3732,21 +3750,21 @@
         <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3769,19 +3787,19 @@
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>78</v>
@@ -3830,7 +3848,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -3845,21 +3863,21 @@
         <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>175</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3882,19 +3900,19 @@
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>78</v>
@@ -3943,7 +3961,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -3958,21 +3976,21 @@
         <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3980,7 +3998,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>88</v>
@@ -3995,19 +4013,17 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>78</v>
@@ -4056,10 +4072,10 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>88</v>
@@ -4071,21 +4087,21 @@
         <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>226</v>
+        <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>222</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4093,7 +4109,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>88</v>
@@ -4105,21 +4121,19 @@
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>229</v>
+        <v>175</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>230</v>
+        <v>176</v>
       </c>
       <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>231</v>
-      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>78</v>
       </c>
@@ -4167,10 +4181,10 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>228</v>
+        <v>177</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>88</v>
@@ -4179,35 +4193,35 @@
         <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>232</v>
+        <v>178</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>233</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>78</v>
@@ -4219,15 +4233,17 @@
         <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>78</v>
@@ -4276,25 +4292,25 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>78</v>
@@ -4302,14 +4318,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>133</v>
+        <v>183</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4322,24 +4338,26 @@
         <v>78</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>135</v>
+        <v>184</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="N27" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="O27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>78</v>
       </c>
@@ -4387,7 +4405,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4405,7 +4423,7 @@
         <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>78</v>
@@ -4413,45 +4431,43 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>179</v>
+        <v>78</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>143</v>
+        <v>243</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>78</v>
@@ -4500,25 +4516,25 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>182</v>
+        <v>241</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>78</v>
+        <v>244</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>131</v>
+        <v>245</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>78</v>
@@ -4526,10 +4542,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4552,17 +4568,17 @@
         <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>184</v>
+        <v>247</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>78</v>
@@ -4611,7 +4627,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -4626,10 +4642,10 @@
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>78</v>
@@ -4637,10 +4653,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4663,17 +4679,17 @@
         <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>78</v>
@@ -4722,7 +4738,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -4737,10 +4753,10 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>78</v>
@@ -4748,10 +4764,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4774,17 +4790,17 @@
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>157</v>
+        <v>258</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>78</v>
@@ -4833,7 +4849,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -4848,10 +4864,10 @@
         <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>78</v>
@@ -4859,10 +4875,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4870,7 +4886,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>88</v>
@@ -4885,17 +4901,19 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>254</v>
+        <v>200</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="O32" t="s" s="2">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>78</v>
@@ -4944,10 +4962,10 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>88</v>
@@ -4959,10 +4977,10 @@
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>78</v>
@@ -4970,10 +4988,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4981,7 +4999,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>88</v>
@@ -4996,19 +5014,19 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>263</v>
+        <v>223</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>78</v>
@@ -5057,10 +5075,10 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>88</v>
@@ -5072,21 +5090,21 @@
         <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>78</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5109,19 +5127,17 @@
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>204</v>
+        <v>277</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>219</v>
+        <v>280</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>78</v>
@@ -5146,13 +5162,13 @@
         <v>78</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>78</v>
+        <v>281</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>78</v>
+        <v>282</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>78</v>
@@ -5170,7 +5186,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5185,21 +5201,21 @@
         <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>271</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5222,18 +5238,16 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>273</v>
+        <v>166</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>276</v>
-      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>78</v>
       </c>
@@ -5257,13 +5271,13 @@
         <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>277</v>
+        <v>78</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>278</v>
+        <v>78</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>279</v>
+        <v>78</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>78</v>
@@ -5281,7 +5295,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5296,21 +5310,21 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>282</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5330,16 +5344,16 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>284</v>
+        <v>175</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>285</v>
+        <v>176</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5390,7 +5404,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>283</v>
+        <v>177</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5402,13 +5416,13 @@
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>286</v>
+        <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>287</v>
+        <v>178</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
@@ -5416,21 +5430,21 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
@@ -5442,15 +5456,17 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -5499,25 +5515,25 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>78</v>
@@ -5525,14 +5541,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>133</v>
+        <v>183</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -5545,24 +5561,26 @@
         <v>78</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>135</v>
+        <v>184</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="N38" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="O38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>78</v>
       </c>
@@ -5610,7 +5628,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -5628,7 +5646,7 @@
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>78</v>
@@ -5636,45 +5654,43 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>179</v>
+        <v>78</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>180</v>
+        <v>295</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>143</v>
+        <v>297</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>78</v>
@@ -5723,25 +5739,25 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>182</v>
+        <v>294</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>78</v>
+        <v>298</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>131</v>
+        <v>299</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
@@ -5749,10 +5765,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5775,17 +5791,19 @@
         <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O40" t="s" s="2">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>78</v>
@@ -5810,13 +5828,13 @@
         <v>78</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>78</v>
+        <v>305</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>78</v>
+        <v>306</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>78</v>
+        <v>307</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>78</v>
@@ -5834,7 +5852,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>88</v>
@@ -5849,10 +5867,10 @@
         <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
@@ -5860,10 +5878,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5871,7 +5889,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>88</v>
@@ -5886,19 +5904,19 @@
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>108</v>
+        <v>311</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>78</v>
@@ -5923,13 +5941,13 @@
         <v>78</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>302</v>
+        <v>78</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>303</v>
+        <v>78</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>304</v>
+        <v>78</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>78</v>
@@ -5947,10 +5965,10 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>88</v>
@@ -5962,10 +5980,10 @@
         <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
@@ -5973,10 +5991,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5984,13 +6002,13 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>78</v>
@@ -5999,19 +6017,19 @@
         <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -6060,13 +6078,13 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>78</v>
@@ -6075,10 +6093,10 @@
         <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>313</v>
+        <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>78</v>
@@ -6086,10 +6104,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6097,13 +6115,13 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>78</v>
@@ -6112,19 +6130,17 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -6173,13 +6189,13 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>78</v>
@@ -6191,125 +6207,14 @@
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" hidden="true">
-      <c r="A44" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="P44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q44" s="2"/>
-      <c r="R44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AM44" t="s" s="2">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM44">
+  <autoFilter ref="A1:AM43">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6319,7 +6224,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI43">
+  <conditionalFormatting sqref="A2:AI42">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/temp/pages/StructureDefinition-rtlsMessageEnrollmentHeader.xlsx
+++ b/temp/pages/StructureDefinition-rtlsMessageEnrollmentHeader.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-05T14:07:30-05:00</t>
+    <t>2025-08-05T17:07:14-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-rtlsMessageEnrollmentHeader.xlsx
+++ b/temp/pages/StructureDefinition-rtlsMessageEnrollmentHeader.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-05T17:07:14-05:00</t>
+    <t>2025-08-05T17:18:07-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-rtlsMessageEnrollmentHeader.xlsx
+++ b/temp/pages/StructureDefinition-rtlsMessageEnrollmentHeader.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-05T17:18:07-05:00</t>
+    <t>2025-08-06T08:42:49-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-rtlsMessageEnrollmentHeader.xlsx
+++ b/temp/pages/StructureDefinition-rtlsMessageEnrollmentHeader.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-06T08:42:49-05:00</t>
+    <t>2025-08-06T11:48:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-rtlsMessageEnrollmentHeader.xlsx
+++ b/temp/pages/StructureDefinition-rtlsMessageEnrollmentHeader.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-06T11:48:33-05:00</t>
+    <t>2025-08-06T12:28:55-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-rtlsMessageEnrollmentHeader.xlsx
+++ b/temp/pages/StructureDefinition-rtlsMessageEnrollmentHeader.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-06T12:28:55-05:00</t>
+    <t>2025-08-07T11:40:07-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-rtlsMessageEnrollmentHeader.xlsx
+++ b/temp/pages/StructureDefinition-rtlsMessageEnrollmentHeader.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-07T11:40:07-05:00</t>
+    <t>2025-08-07T11:52:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
